--- a/master.xlsx
+++ b/master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiuxo\OneDrive\바탕 화면\구매계획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5BC502-45F4-451C-A2DE-CF0A4F4AEE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB6045A-5B8E-4818-9DC0-1DFDCAFF5B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6855" yWindow="2130" windowWidth="21600" windowHeight="11295" xr2:uid="{70C976D4-0DD7-4016-9222-40C02461633D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{70C976D4-0DD7-4016-9222-40C02461633D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>sku</t>
   </si>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>CAFFEINE</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,15 +530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3A6BAA-511D-4855-A22F-839E2200B36E}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +560,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -573,8 +583,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -593,8 +606,11 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -613,8 +629,11 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -633,8 +652,11 @@
       <c r="F5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -653,8 +675,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -673,8 +698,11 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -693,8 +721,11 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -713,8 +744,11 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -733,8 +767,11 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -753,8 +790,11 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -773,8 +813,11 @@
       <c r="F12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -793,8 +836,11 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -813,8 +859,11 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -833,8 +882,11 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -853,8 +905,11 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -873,8 +928,11 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -893,8 +951,11 @@
       <c r="F18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -913,8 +974,11 @@
       <c r="F19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -933,8 +997,11 @@
       <c r="F20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -953,8 +1020,11 @@
       <c r="F21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -974,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -994,7 +1064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1014,7 +1084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1034,7 +1104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1054,7 +1124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1094,7 +1164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1114,7 +1184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1134,7 +1204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1154,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
